--- a/biology/Zoologie/Michael_Akam/Michael_Akam.xlsx
+++ b/biology/Zoologie/Michael_Akam/Michael_Akam.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Edwin Akam (né le 19 juin 1952 à Bromley, Kent) est un zoologiste britannique [1]. Il est professeur associé au Darwin College de Cambridge et directeur du University Museum of Zoology [2],[3].
-Il est boursier Damon Runyan à l'Université Stanford, de 1979 à 1981 [4]. Il est membre de l'Association américaine pour l'avancement des sciences [5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Edwin Akam (né le 19 juin 1952 à Bromley, Kent) est un zoologiste britannique . Il est professeur associé au Darwin College de Cambridge et directeur du University Museum of Zoology ,.
+Il est boursier Damon Runyan à l'Université Stanford, de 1979 à 1981 . Il est membre de l'Association américaine pour l'avancement des sciences .
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Michael Akam (Ed), L'évolution des mécanismes de développement, Numéro 1, Company of Biologists, 1994, (ISBN 978-0-948601-43-9)</t>
         </is>
